--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1560056.216706311</v>
+        <v>-1562537.13653177</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834739</v>
+        <v>10721426.73834738</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>327.7628950335565</v>
@@ -1385,10 +1385,10 @@
         <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>180.5682692727068</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579953</v>
+        <v>14.65678318579949</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.2676152010494</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>19.08875413105731</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,10 +1528,10 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>120.5920287206998</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
         <v>119.5138160594427</v>
@@ -1540,13 +1540,13 @@
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>99.29835888991494</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292089</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1588,7 +1588,7 @@
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>151.0291404563711</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>50.60473223884573</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>20.68869925605834</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>7.534866588046761</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494645</v>
@@ -1831,7 +1831,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
@@ -1856,10 +1856,10 @@
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>284.7620825492948</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>196.150542462708</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,16 +2056,16 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
-        <v>240.6420543130727</v>
+        <v>240.6420543130718</v>
       </c>
       <c r="W19" t="n">
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,10 +2081,10 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>160.1280074371996</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>17.68304980209946</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
@@ -2147,7 +2147,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860174</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411906</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>208.053360265414</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948569</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,7 +2318,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
         <v>280.7877584149639</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
         <v>253.8569752644159</v>
@@ -2384,7 +2384,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860174</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206857</v>
       </c>
       <c r="T25" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>214.214066378282</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2612,7 +2612,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115153</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>90.95618068285724</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>89.27723295060875</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
@@ -3487,7 +3487,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846421</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092326</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>164.0711673124573</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>231.04521637288</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383233</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482628</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092326</v>
+        <v>111.8803261135832</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>170.2318734253261</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>113.1013389531842</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
-        <v>42.20693826439379</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,10 +4198,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2154.822967855899</v>
+        <v>1725.053176228254</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.052518175211</v>
+        <v>1725.053176228254</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828185</v>
+        <v>1393.979544881227</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>1035.383359542707</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597802</v>
+        <v>651.5895220128234</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645001</v>
+        <v>263.7091391175436</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299096</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810557</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
         <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573495</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489648</v>
+        <v>2759.850719956089</v>
       </c>
       <c r="W11" t="n">
-        <v>2514.230740660297</v>
+        <v>2434.274131945698</v>
       </c>
       <c r="X11" t="n">
-        <v>2514.230740660297</v>
+        <v>2088.000440944342</v>
       </c>
       <c r="Y11" t="n">
-        <v>2514.230740660297</v>
+        <v>1725.053176228254</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5121,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>619.1101211992293</v>
+        <v>881.3352239764672</v>
       </c>
       <c r="C13" t="n">
-        <v>477.3660055310461</v>
+        <v>759.5250939555583</v>
       </c>
       <c r="D13" t="n">
-        <v>477.3660055310461</v>
+        <v>636.6005218029463</v>
       </c>
       <c r="E13" t="n">
-        <v>356.6449792083768</v>
+        <v>515.8794954802769</v>
       </c>
       <c r="F13" t="n">
-        <v>236.9470989701901</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541144</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
         <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376952</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
         <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535516</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="X13" t="n">
-        <v>967.1670306535516</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="Y13" t="n">
-        <v>773.5665187697452</v>
+        <v>1035.791621546983</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1581.813367974995</v>
+        <v>1448.744004637037</v>
       </c>
       <c r="C14" t="n">
-        <v>1429.258680645327</v>
+        <v>1106.973554956349</v>
       </c>
       <c r="D14" t="n">
-        <v>1098.1850492983</v>
+        <v>775.8999236093218</v>
       </c>
       <c r="E14" t="n">
-        <v>739.5888639597798</v>
+        <v>724.7840324589724</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597798</v>
+        <v>724.7840324589724</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299098</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5309,19 +5309,19 @@
         <v>3146.820141253116</v>
       </c>
       <c r="U14" t="n">
-        <v>2920.481731786676</v>
+        <v>3146.820141253116</v>
       </c>
       <c r="V14" t="n">
-        <v>2616.61091170283</v>
+        <v>2842.949321169269</v>
       </c>
       <c r="W14" t="n">
-        <v>2291.034323692439</v>
+        <v>2517.372733158879</v>
       </c>
       <c r="X14" t="n">
-        <v>1944.760632691083</v>
+        <v>2171.099042157522</v>
       </c>
       <c r="Y14" t="n">
-        <v>1581.813367974995</v>
+        <v>1808.151777441435</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3126375609367</v>
+        <v>637.8338681055723</v>
       </c>
       <c r="C16" t="n">
-        <v>276.5685218927534</v>
+        <v>496.0897524373891</v>
       </c>
       <c r="D16" t="n">
-        <v>255.6708458765329</v>
+        <v>496.0897524373891</v>
       </c>
       <c r="E16" t="n">
-        <v>255.6708458765329</v>
+        <v>375.3687261147196</v>
       </c>
       <c r="F16" t="n">
         <v>255.6708458765329</v>
@@ -5434,7 +5434,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
         <v>368.9238220705058</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>2132.891132706972</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991586</v>
+        <v>1938.316584536221</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1676.405784921589</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.39213343079</v>
+        <v>1448.913363975425</v>
       </c>
       <c r="W16" t="n">
-        <v>967.167030653553</v>
+        <v>1186.688261198188</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152591</v>
+        <v>985.8907775598948</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314527</v>
+        <v>792.2902656760883</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666651</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934036</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446363</v>
+        <v>913.4366884189399</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>577.0924838371293</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2979.732029417716</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344274</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290991</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522976</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5589,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872283</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671184</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625797</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5707,16 +5707,16 @@
         <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064788</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356243</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X19" t="n">
-        <v>822.279422545404</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096709</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1650.240104949984</v>
+        <v>1733.441802325476</v>
       </c>
       <c r="C20" t="n">
-        <v>1355.919288217369</v>
+        <v>1439.120985592861</v>
       </c>
       <c r="D20" t="n">
-        <v>1072.295289818415</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>761.1487374279682</v>
+        <v>966.2289711446364</v>
       </c>
       <c r="F20" t="n">
-        <v>424.8045328461576</v>
+        <v>629.8847665628258</v>
       </c>
       <c r="G20" t="n">
-        <v>84.37378289895057</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3289.956853344064</v>
+        <v>3194.26977420119</v>
       </c>
       <c r="U20" t="n">
-        <v>3111.068076825697</v>
+        <v>3194.26977420119</v>
       </c>
       <c r="V20" t="n">
-        <v>2854.646889689923</v>
+        <v>2937.848587065416</v>
       </c>
       <c r="W20" t="n">
-        <v>2576.519934627606</v>
+        <v>2659.721632003098</v>
       </c>
       <c r="X20" t="n">
-        <v>2277.695876574323</v>
+        <v>2360.897573949816</v>
       </c>
       <c r="Y20" t="n">
-        <v>1962.198244806308</v>
+        <v>2045.3999421818</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872283</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671184</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625797</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604107</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5938,22 +5938,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729437</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356243</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X22" t="n">
-        <v>822.279422545404</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096709</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056952</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.094609534935</v>
+        <v>973.0946095349356</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.750404953125</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6625348018608</v>
+        <v>262.2568857815079</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4819084917074</v>
+        <v>596.0762594713544</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.516121740116</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.048026412041</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826843470823</v>
+        <v>2398.778219900868</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.79931435016</v>
+        <v>2901.750690780205</v>
       </c>
       <c r="P23" t="n">
-        <v>3192.573680707338</v>
+        <v>3296.525057137384</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893064</v>
+        <v>3544.811418893066</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859013</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681292</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913277</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775272</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574174</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528787</v>
+        <v>406.217995452879</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782826</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881692</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634003</v>
+        <v>96.06173179634011</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667905</v>
       </c>
       <c r="M25" t="n">
         <v>983.2044142663394</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342414</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453178</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762251</v>
+        <v>982.4929116259239</v>
       </c>
       <c r="X25" t="n">
-        <v>829.145060935703</v>
+        <v>829.1450609357034</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999699</v>
+        <v>682.9941819999704</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6309,7 +6309,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467783</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>3336.058965299585</v>
       </c>
       <c r="P29" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3977.401766380301</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
@@ -6616,7 +6616,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6625,19 +6625,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>393.2994530991692</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>727.1188267890157</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1178.153040037424</v>
+        <v>1326.966459396848</v>
       </c>
       <c r="M32" t="n">
-        <v>1711.684944709349</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N32" t="n">
-        <v>2258.463761768131</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647468</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6877,7 +6877,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464976</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515856</v>
@@ -7011,16 +7011,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127572</v>
+        <v>740.9069705127571</v>
       </c>
       <c r="C37" t="n">
-        <v>670.6422221586936</v>
+        <v>571.9707875848502</v>
       </c>
       <c r="D37" t="n">
-        <v>520.5255827463578</v>
+        <v>421.8541481725144</v>
       </c>
       <c r="E37" t="n">
-        <v>428.6506527636737</v>
+        <v>273.9410545901213</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396067</v>
+        <v>225.7225416660543</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>156.6911396146165</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7135,10 +7135,10 @@
         <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388403</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691535</v>
+        <v>922.5554353429968</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7172,19 +7172,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170923</v>
+        <v>796.9451341124661</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630288</v>
+        <v>726.6803857584025</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245365</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218343</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1322.107160725841</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673493</v>
+        <v>1131.361425262723</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431753</v>
+        <v>1002.043308938549</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734886</v>
+        <v>879.9221643688625</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464984</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170923</v>
+        <v>740.9069705127572</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630288</v>
+        <v>670.6422221586936</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245365</v>
+        <v>619.1970173202012</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159868</v>
+        <v>569.9553583116515</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>423.0654108137411</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U43" t="n">
-        <v>1323.410616184332</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V43" t="n">
-        <v>1068.726127978445</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>779.3089579414846</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431753</v>
+        <v>946.0051453388403</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734886</v>
+        <v>823.8840007691535</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,40 +7658,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7716,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5641013650709</v>
+        <v>839.5784050866016</v>
       </c>
       <c r="C46" t="n">
-        <v>473.2993530110074</v>
+        <v>725.3346283662136</v>
       </c>
       <c r="D46" t="n">
-        <v>421.8541481725151</v>
+        <v>575.2179889538778</v>
       </c>
       <c r="E46" t="n">
-        <v>273.941054590122</v>
+        <v>525.9763299453282</v>
       </c>
       <c r="F46" t="n">
-        <v>225.722541666055</v>
+        <v>379.0863824474179</v>
       </c>
       <c r="G46" t="n">
-        <v>156.6911396146174</v>
+        <v>211.3835458221368</v>
       </c>
       <c r="H46" t="n">
-        <v>109.1453874063186</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1323.410616184332</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552288</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891713</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>847.3337107649974</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y46" t="n">
-        <v>626.5411316214672</v>
+        <v>922.5554353429978</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430626</v>
+        <v>157.2353108430634</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729</v>
+        <v>184.4039433729011</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389594</v>
+        <v>191.4948909389609</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333056</v>
+        <v>181.0856325333072</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830229</v>
+        <v>179.3553748830246</v>
       </c>
       <c r="O8" t="n">
-        <v>182.830155438398</v>
+        <v>182.8301554383995</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586576</v>
+        <v>190.8908035586589</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266117</v>
+        <v>192.0103836266127</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875971</v>
+        <v>112.6562001875976</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372528</v>
+        <v>113.6031223372536</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672266</v>
+        <v>105.9629718672277</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253584</v>
+        <v>104.1013981253597</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677565</v>
+        <v>92.30246558677695</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359727</v>
+        <v>106.8829608359739</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798317</v>
+        <v>105.3113487798327</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615453</v>
+        <v>120.821278461546</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564654</v>
+        <v>116.175525256466</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085223</v>
+        <v>119.199607408523</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140773</v>
+        <v>108.428412314078</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530921</v>
+        <v>120.6694600530926</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662701</v>
+        <v>122.5080856662706</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>274.0980055054529</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.0013903333774</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>78.40458911672832</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>19.40311602546575</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>21.13839585591323</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5185911550046</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>274.8351763665433</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>87.11934852748718</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>303.2320679992292</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19.73464579080157</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>39.80730278198683</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019107</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>187.32360472751</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.4054912462897</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>101.0066271750275</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>139.1056616719018</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.3140121562687</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>52.26435989843964</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>79.19514304898597</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>120.6597509777644</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>203.0294313795019</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1334602.617865332</v>
+        <v>1334602.617865333</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1223248.437736203</v>
+        <v>1223248.437736202</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1223248.437736203</v>
+        <v>1223248.437736202</v>
       </c>
     </row>
     <row r="9">
@@ -26317,19 +26317,19 @@
         <v>184337.1762113337</v>
       </c>
       <c r="D2" t="n">
-        <v>184342.2007063379</v>
+        <v>184342.2007063381</v>
       </c>
       <c r="E2" t="n">
         <v>164146.5002036194</v>
       </c>
       <c r="F2" t="n">
-        <v>164146.5002036192</v>
+        <v>164146.5002036194</v>
       </c>
       <c r="G2" t="n">
         <v>178769.434780471</v>
       </c>
       <c r="H2" t="n">
-        <v>178769.4347804709</v>
+        <v>178769.4347804707</v>
       </c>
       <c r="I2" t="n">
         <v>184734.3982194639</v>
@@ -26338,10 +26338,10 @@
         <v>184734.3982194639</v>
       </c>
       <c r="K2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="L2" t="n">
         <v>184734.3982194639</v>
-      </c>
-      <c r="L2" t="n">
-        <v>184734.3982194638</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194639</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194639</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.398219464</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194639</v>
@@ -26369,43 +26369,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.5536755242</v>
+        <v>59764.55367552222</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163631</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983379</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475034</v>
+        <v>426120.6833475041</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863749</v>
+        <v>39414.21797863748</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863747</v>
+        <v>39414.21797863743</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007968</v>
+        <v>76442.37834007965</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007968</v>
+        <v>76442.37834007959</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.33560602844</v>
+        <v>89331.33560602847</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936331</v>
+        <v>86909.55729936334</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.55729936337</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.55729936335</v>
       </c>
       <c r="M4" t="n">
+        <v>91573.95495316941</v>
+      </c>
+      <c r="N4" t="n">
         <v>91573.95495316936</v>
       </c>
-      <c r="N4" t="n">
-        <v>91573.95495316941</v>
-      </c>
       <c r="O4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316944</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186639</v>
+        <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26482,34 +26482,34 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184213</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624987</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
-      <c r="N5" t="n">
-        <v>82518.59730624987</v>
-      </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-296315.0440610592</v>
+        <v>-296319.4576389274</v>
       </c>
       <c r="C6" t="n">
-        <v>-296315.0440610592</v>
+        <v>-296319.4576389273</v>
       </c>
       <c r="D6" t="n">
-        <v>-336691.9417485561</v>
+        <v>-336696.2994987004</v>
       </c>
       <c r="E6" t="n">
-        <v>-1041076.180303475</v>
+        <v>-1041304.934725875</v>
       </c>
       <c r="F6" t="n">
-        <v>48162.79186015518</v>
+        <v>47934.03743775726</v>
       </c>
       <c r="G6" t="n">
-        <v>-15771.69597969769</v>
+        <v>-15837.97335124197</v>
       </c>
       <c r="H6" t="n">
-        <v>21808.41331517635</v>
+        <v>21742.13594363188</v>
       </c>
       <c r="I6" t="n">
-        <v>-13154.93351824026</v>
+        <v>-13154.93351824052</v>
       </c>
       <c r="J6" t="n">
-        <v>-16962.53377650247</v>
+        <v>-16962.53377650242</v>
       </c>
       <c r="K6" t="n">
-        <v>8446.899245294466</v>
+        <v>8446.899245294335</v>
       </c>
       <c r="L6" t="n">
-        <v>-29133.21004957969</v>
+        <v>-29133.21004957963</v>
       </c>
       <c r="M6" t="n">
-        <v>-191526.2540326796</v>
+        <v>-191526.2540326797</v>
       </c>
       <c r="N6" t="n">
-        <v>10641.84596004452</v>
+        <v>10641.84596004469</v>
       </c>
       <c r="O6" t="n">
-        <v>10641.84596004464</v>
+        <v>10641.84596004475</v>
       </c>
       <c r="P6" t="n">
-        <v>10641.84596004458</v>
+        <v>10641.84596004445</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>26.92014658712646</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810488</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97.68472022810488</v>
+      </c>
+      <c r="O2" t="n">
         <v>97.68472022810489</v>
       </c>
-      <c r="N2" t="n">
-        <v>97.68472022810496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810496</v>
-      </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790807</v>
+        <v>69.78465283790575</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.2219352810303</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
@@ -26829,7 +26829,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951231</v>
+        <v>50.70958360951233</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790807</v>
+        <v>69.78465283790575</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.99204775539</v>
+        <v>1019.992047755393</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873761</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104725</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.246564378017</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036571</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672095</v>
+        <v>84.22861846672112</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987496</v>
+        <v>90.83829126987527</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519062</v>
+        <v>84.46220888519092</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989987</v>
+        <v>7.649035050990472</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317027</v>
+        <v>75.62456067317062</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V19" t="n">
-        <v>11.49558901075528</v>
+        <v>11.49558901075616</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T22" t="n">
-        <v>11.49558901075522</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075622</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X25" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859182</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55.47778196371193</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>55.47778196371203</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>55.47778196371192</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>55.47778196371101</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810496</v>
+        <v>54.14548214544504</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>55.47778196371104</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>54.14548214544368</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>54.1454821454443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413387</v>
+        <v>0.2805413179413295</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366736</v>
+        <v>2.873093772366641</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993347</v>
+        <v>10.81556915993311</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362372</v>
+        <v>23.81059368362293</v>
       </c>
       <c r="K8" t="n">
-        <v>35.6859076720806</v>
+        <v>35.68590767207942</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102785</v>
+        <v>44.27152403102639</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396713</v>
+        <v>49.2606006939655</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356797</v>
+        <v>50.05768871356631</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328878</v>
+        <v>47.26805598328721</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661197</v>
+        <v>40.34219219661063</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783777</v>
+        <v>30.29530624783676</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313264</v>
+        <v>17.62255356313205</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588264</v>
+        <v>6.392835282588051</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288211</v>
+        <v>1.22806961928817</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353071</v>
+        <v>0.02244330543530635</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796513</v>
+        <v>0.1501028381796463</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840317</v>
+        <v>1.449677410840269</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694136</v>
+        <v>5.168014384693965</v>
       </c>
       <c r="J9" t="n">
-        <v>14.1814264790696</v>
+        <v>14.18142647906913</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710624</v>
+        <v>24.23831663710544</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264754</v>
+        <v>32.59140791264646</v>
       </c>
       <c r="M9" t="n">
-        <v>38.0326357966599</v>
+        <v>38.03263579665863</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655765</v>
+        <v>39.03924649655635</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847169</v>
+        <v>35.7132836084705</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449851</v>
+        <v>28.66305863449756</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447619</v>
+        <v>19.16049562447556</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768179</v>
+        <v>9.31954288276787</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608872</v>
+        <v>2.78809438460878</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189033</v>
+        <v>0.6050197731890129</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345487</v>
+        <v>0.009875186722345159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486867</v>
+        <v>0.1258411772486825</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811051</v>
+        <v>1.118842466811014</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078687</v>
+        <v>3.784387403078562</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482148</v>
+        <v>8.896971231481851</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489287</v>
+        <v>14.62045677489238</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477293</v>
+        <v>18.70915102477231</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908276</v>
+        <v>19.72617653908211</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115585</v>
+        <v>19.25713215115522</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875074</v>
+        <v>17.78707839875015</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287752</v>
+        <v>15.21991838287701</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852412</v>
+        <v>10.53748257852377</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381855</v>
+        <v>5.658276933381668</v>
       </c>
       <c r="S10" t="n">
-        <v>2.19306851623393</v>
+        <v>2.193068516233857</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625702</v>
+        <v>0.5376850300625523</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564735</v>
+        <v>0.006864064213564508</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019269</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222342</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859626</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36367,7 +36367,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>826.3998409183644</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>355.7956951370969</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>329.1988939204478</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120773</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637023</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36844,16 +36844,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>418.1651022448376</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>80.75159439813801</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887899</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120764</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>315.3055921237172</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>730.4252907588755</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37084,13 +37084,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302282</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
